--- a/USBASP.bom.xlsx
+++ b/USBASP.bom.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\kicad6_workspace\projects\USBASP_Rev1.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD50D4-E8AA-4D0E-B245-E18A438088BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2110" yWindow="2010" windowWidth="34400" windowHeight="15650" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="USBASP.bom" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="USBASP.bom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,501 +27,483 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
   <si>
-    <t xml:space="preserve">Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datasheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIGIKEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOUSER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 1UF 10% 25V X7R 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCC0603X7R105K250CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitor_SMD:C_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP-1U-10%-25V-X7R-0603_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C380328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3, C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 22PF 5% 50V C0G 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603JRNPO9BN220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP-22P-5%-50V-C0G-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311-1062-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-CC603JRNPO9BN220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C105620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5, C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 100NF 10% 50V X7R 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP-100N-10%-50V-X7R-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">587-6560-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-AC0603KR9BB104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C149620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 4.7UF 10% 16V X5R 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL10A475KO8NNNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP-4.7U-10%-16V-X5R-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276-1784-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187-CL10A475KO8NNNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1, D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIODE ZENER 3.6V 0.5W SOD123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZT52C3V6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diode_SMD:D_SOD-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datasheet.lcsc.com/lcsc/2010262106_FUXINSEMI-BZT52C3V6_C908187.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZENER-3.6V-0.5W-SOD123_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C908187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED GREEN CLEAR 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTST-C193KGKT-5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_SMD:LED_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://optoelectronics.liteon.com/upload/download/DS22-2007-0094/LTST-C193KGKT-5A.PDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-GREEN-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160-1828-1-ND</t>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Reference(s)</t>
+  </si>
+  <si>
+    <t>Descr</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>DIGIKEY</t>
+  </si>
+  <si>
+    <t>MOUSER</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10% 25V X7R 0603</t>
+  </si>
+  <si>
+    <t>TCC0603X7R105K250CT</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>CAP-1U-10%-25V-X7R-0603_002</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>C380328</t>
+  </si>
+  <si>
+    <t>C3, C4</t>
+  </si>
+  <si>
+    <t>CAP CER 22PF 5% 50V C0G 0603</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>CAP-22P-5%-50V-C0G-0603_001</t>
+  </si>
+  <si>
+    <t>311-1062-1-ND</t>
+  </si>
+  <si>
+    <t>603-CC603JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>C105620</t>
+  </si>
+  <si>
+    <t>C5, C7</t>
+  </si>
+  <si>
+    <t>CAP CER 100NF 10% 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>AC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>CAP-100N-10%-50V-X7R-0603_001</t>
+  </si>
+  <si>
+    <t>587-6560-1-ND</t>
+  </si>
+  <si>
+    <t>603-AC0603KR9BB104</t>
+  </si>
+  <si>
+    <t>C149620</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 10% 16V X5R 0603</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>CAP-4.7U-10%-16V-X5R-0603_001</t>
+  </si>
+  <si>
+    <t>1276-1784-1-ND</t>
+  </si>
+  <si>
+    <t>187-CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>C19666</t>
+  </si>
+  <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
+    <t>DIODE ZENER 3.6V 0.5W SOD123</t>
+  </si>
+  <si>
+    <t>BZT52C3V6</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-123</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2010262106_FUXINSEMI-BZT52C3V6_C908187.pdf</t>
+  </si>
+  <si>
+    <t>ZENER-3.6V-0.5W-SOD123_002</t>
+  </si>
+  <si>
+    <t>C908187</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR 0603</t>
+  </si>
+  <si>
+    <t>LTST-C193KGKT-5A</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>http://optoelectronics.liteon.com/upload/download/DS22-2007-0094/LTST-C193KGKT-5A.PDF</t>
+  </si>
+  <si>
+    <t>LED-GREEN-0603_001</t>
+  </si>
+  <si>
+    <t>160-1828-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve"> 859-LTSTC193KGKT5A</t>
   </si>
   <si>
-    <t xml:space="preserve">C125102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED RED CLEAR 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTST-C193KRKT-5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://optoelectronics.liteon.com/upload/download/DS22-2005-077/LTST-C193KRKT-5A.PDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-RED-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160-1830-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">859-LTSTC193KRKT5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C157741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLYFUSE 0.5A 6V 0.5W 100A 0.15OHM 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASMD0805-050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuse:Fuse_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datasheet.lcsc.com/lcsc/1809211130_Shenzhen-JDT-Fuse-ASMD0805-050_C135329.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLYFUSE-0.5A-6V-0.5W-100A-0.15OHM-0805_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C135329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN RCPT USB2.0 MICRO B SMD R/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10118194-0001LF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dm_SMD:AMPHENOL_10118194-0001LF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.amphenol-icc.com/media/wysiwyg/files/drawing/10118194.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-MICRO-B_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">609-4618-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">649-10118194-0001LF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C132563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN HEADER TH 10POS 02X05 2.54MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C124387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_2x05_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datasheet.lcsc.com/szlcsc/1811151422_Ckmtw-Shenzhen-Cankemeng-C124387_C124387.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN-HDR-02X05-2.54-TH_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP1, JP2, JP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN HEADER TH 2POS 01X02 2.54MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C124375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_2x01_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datasheet.lcsc.com/szlcsc/1811151421_Ckmtw-Shenzhen-Cankemeng-C124375_C124375.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN-HDR-01X02-2.54-TH_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN HEADER TH 3POS 01X03 2.54MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210-91-03GB01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN-HDR-01X03-2.54-TH_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C390679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 10K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-0710KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor_SMD:R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES-10K-1%-0.1W-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311-10.0KHRCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-0710KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C98220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 2.2K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-072K2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES-2.2K-1%-0.1W-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311-2.20KHRCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-072K2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C114662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3, R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 51 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-0751RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES-51-1%-0.1W-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311-51.0HRCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-0751RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C114628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5, R6, R7, R8, R9, R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 100 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-07100RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES-100-1%-0.1W-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311-100HRCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-07100RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C105588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11, R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 470 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-07470RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES-470-1%-0.1W-0603_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311-470HRCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-07470RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C114669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC REG LINEAR 3.3V 500MA SOT23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HX6211A332MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datasheet.lcsc.com/szlcsc/1912111437_HX-hengjiaxing-HX6211A332MR_C296224.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C296224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC MCU 8BIT 8KB FLASH TQFP32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATMEGA8L-8AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_QFP:TQFP-32_7x7mm_P0.8mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ww1.microchip.com/downloads/en/DeviceDoc/atmel-2486-8-bit-avr-microcontroller-atmega8_l_datasheet.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATMEGA8L_TQFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATMEGA8L-8AU-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">556-ATMEGA8L-8AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRYSTAL OSC 8MHZ 10PPM 20PF 3225 SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3212000181080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal:Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datasheet.lcsc.com/lcsc/1912111437_JGHC-S3212000181080_C390764.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSC-12M-10PPM-18P-4P-3225_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C390764</t>
+    <t>C125102</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>LED RED CLEAR 0603</t>
+  </si>
+  <si>
+    <t>LTST-C193KRKT-5A</t>
+  </si>
+  <si>
+    <t>http://optoelectronics.liteon.com/upload/download/DS22-2005-077/LTST-C193KRKT-5A.PDF</t>
+  </si>
+  <si>
+    <t>LED-RED-0603_001</t>
+  </si>
+  <si>
+    <t>160-1830-1-ND</t>
+  </si>
+  <si>
+    <t>859-LTSTC193KRKT5A</t>
+  </si>
+  <si>
+    <t>C157741</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>POLYFUSE 0.5A 6V 0.5W 100A 0.15OHM 0805</t>
+  </si>
+  <si>
+    <t>ASMD0805-050</t>
+  </si>
+  <si>
+    <t>Fuse:Fuse_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1809211130_Shenzhen-JDT-Fuse-ASMD0805-050_C135329.pdf</t>
+  </si>
+  <si>
+    <t>POLYFUSE-0.5A-6V-0.5W-100A-0.15OHM-0805_002</t>
+  </si>
+  <si>
+    <t>C135329</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>CONN RCPT USB2.0 MICRO B SMD R/A</t>
+  </si>
+  <si>
+    <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>dm_SMD:AMPHENOL_10118194-0001LF</t>
+  </si>
+  <si>
+    <t>http://www.amphenol-icc.com/media/wysiwyg/files/drawing/10118194.pdf</t>
+  </si>
+  <si>
+    <t>USB-MICRO-B_001</t>
+  </si>
+  <si>
+    <t>609-4618-1-ND</t>
+  </si>
+  <si>
+    <t>649-10118194-0001LF</t>
+  </si>
+  <si>
+    <t>C132563</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>CONN HEADER TH 10POS 02X05 2.54MM</t>
+  </si>
+  <si>
+    <t>C124387</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1811151422_Ckmtw-Shenzhen-Cankemeng-C124387_C124387.pdf</t>
+  </si>
+  <si>
+    <t>CONN-HDR-02X05-2.54-TH_002</t>
+  </si>
+  <si>
+    <t>JP1, JP2, JP3</t>
+  </si>
+  <si>
+    <t>CONN HEADER TH 2POS 01X02 2.54MM</t>
+  </si>
+  <si>
+    <t>C124375</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x01_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1811151421_Ckmtw-Shenzhen-Cankemeng-C124375_C124375.pdf</t>
+  </si>
+  <si>
+    <t>CONN-HDR-01X02-2.54-TH_002</t>
+  </si>
+  <si>
+    <t>JP4</t>
+  </si>
+  <si>
+    <t>CONN HEADER TH 3POS 01X03 2.54MM</t>
+  </si>
+  <si>
+    <t>210-91-03GB01</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>CONN-HDR-01X03-2.54-TH_002</t>
+  </si>
+  <si>
+    <t>C390679</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>RES-10K-1%-0.1W-0603_001</t>
+  </si>
+  <si>
+    <t>311-10.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>C98220</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RES 2.2K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>RES-2.2K-1%-0.1W-0603_001</t>
+  </si>
+  <si>
+    <t>311-2.20KHRCT-ND</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>C114662</t>
+  </si>
+  <si>
+    <t>R3, R4</t>
+  </si>
+  <si>
+    <t>RES 51 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-0751RL</t>
+  </si>
+  <si>
+    <t>RES-51-1%-0.1W-0603_001</t>
+  </si>
+  <si>
+    <t>311-51.0HRCT-ND</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0751RL</t>
+  </si>
+  <si>
+    <t>C114628</t>
+  </si>
+  <si>
+    <t>R5, R6, R7, R8, R9, R10</t>
+  </si>
+  <si>
+    <t>RES 100 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>RES-100-1%-0.1W-0603_001</t>
+  </si>
+  <si>
+    <t>311-100HRCT-ND</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>C105588</t>
+  </si>
+  <si>
+    <t>R11, R12</t>
+  </si>
+  <si>
+    <t>RES 470 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-07470RL</t>
+  </si>
+  <si>
+    <t>RES-470-1%-0.1W-0603_001</t>
+  </si>
+  <si>
+    <t>311-470HRCT-ND</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07470RL</t>
+  </si>
+  <si>
+    <t>C114669</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 500MA SOT23-5</t>
+  </si>
+  <si>
+    <t>HX6211A332MR</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1912111437_HX-hengjiaxing-HX6211A332MR_C296224.pdf</t>
+  </si>
+  <si>
+    <t>C296224</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>IC MCU 8BIT 8KB FLASH TQFP32</t>
+  </si>
+  <si>
+    <t>ATMEGA8L-8AU</t>
+  </si>
+  <si>
+    <t>Package_QFP:TQFP-32_7x7mm_P0.8mm</t>
+  </si>
+  <si>
+    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/atmel-2486-8-bit-avr-microcontroller-atmega8_l_datasheet.pdf</t>
+  </si>
+  <si>
+    <t>ATMEGA8L_TQFP</t>
+  </si>
+  <si>
+    <t>ATMEGA8L-8AU-ND</t>
+  </si>
+  <si>
+    <t>556-ATMEGA8L-8AU</t>
+  </si>
+  <si>
+    <t>C9755</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>S3212000181080</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1912111437_JGHC-S3212000181080_C390764.pdf</t>
+  </si>
+  <si>
+    <t>OSC-12M-10PPM-18P-4P-3225_002</t>
+  </si>
+  <si>
+    <t>C390764</t>
+  </si>
+  <si>
+    <t>CRYSTAL OSC 12MHZ 10PPM 18PF 3225 SMD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -531,7 +518,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -539,79 +526,349 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="12.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="13" style="1" width="12.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1017" style="0" width="11.52"/>
+    <col min="1" max="1" width="12.90625" style="1"/>
+    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" style="1" customWidth="1"/>
+    <col min="5" max="10" width="12.90625" style="1"/>
+    <col min="13" max="1016" width="12.90625" style="1"/>
+    <col min="1017" max="1024" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,19 +899,19 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="AMC1"/>
+      <c r="AMD1"/>
+      <c r="AME1"/>
+      <c r="AMF1"/>
+      <c r="AMG1"/>
+      <c r="AMH1"/>
+      <c r="AMI1"/>
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -685,8 +942,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -717,8 +974,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -749,8 +1006,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -781,8 +1038,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -813,8 +1070,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -845,8 +1102,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -877,8 +1134,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -909,8 +1166,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -941,8 +1198,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -973,8 +1230,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1005,8 +1262,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1037,8 +1294,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1069,8 +1326,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1101,8 +1358,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1133,8 +1390,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1165,8 +1422,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1197,8 +1454,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1229,8 +1486,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1261,27 +1518,27 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
@@ -1290,14 +1547,13 @@
         <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
